--- a/web/src/main/resources/SRS_PM_indata_2_2.xlsx
+++ b/web/src/main/resources/SRS_PM_indata_2_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Development/inera/intyg/srs/web/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A61E646-2C00-E843-A946-6FCEEAB2DF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6CEA4A-8F09-F442-A41B-7D511914EA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28600" yWindow="4240" windowWidth="20000" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11960" yWindow="1820" windowWidth="20000" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kodning av variabelnamn" sheetId="1" r:id="rId1"/>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3383,6 +3383,9 @@
       <c r="C100" t="s">
         <v>109</v>
       </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
       <c r="E100" t="s">
         <v>110</v>
       </c>
@@ -3397,6 +3400,9 @@
       <c r="C101" t="s">
         <v>112</v>
       </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
       <c r="E101" t="s">
         <v>113</v>
       </c>
@@ -3467,6 +3473,9 @@
       <c r="C106" t="s">
         <v>109</v>
       </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
       <c r="E106" t="s">
         <v>110</v>
       </c>
@@ -3480,6 +3489,9 @@
       </c>
       <c r="C107" t="s">
         <v>112</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>113</v>
@@ -4140,9 +4152,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:XFD212"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/web/src/main/resources/SRS_PM_indata_2_2.xlsx
+++ b/web/src/main/resources/SRS_PM_indata_2_2.xlsx
@@ -8,31 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Development/inera/intyg/srs/web/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6CEA4A-8F09-F442-A41B-7D511914EA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20F041-8DC4-EA4E-A6FB-5087C4355189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="1820" windowWidth="20000" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="24000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kodning av variabelnamn" sheetId="1" r:id="rId1"/>
     <sheet name="Kodning av värden för factor" sheetId="2" r:id="rId2"/>
     <sheet name="Variabler per diagnos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="324">
   <si>
     <t>Variabelnamn i prediktiv modell</t>
   </si>
@@ -259,9 +249,6 @@
     <t xml:space="preserve">Är patienten gift/sammanboende eller ensamstående/särbo?  </t>
   </si>
   <si>
-    <t>Kon</t>
-  </si>
-  <si>
     <t>NoCareAtStart</t>
   </si>
   <si>
@@ -271,9 +258,6 @@
     <t>Utfärdades det första läkarintyget för detta sjukskrivningsfall inom primärvården?</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>SA_1_gross</t>
   </si>
   <si>
@@ -307,6 +291,9 @@
     <t>Vilken var patientens huvudsakliga sysselsättning när sjukskrivningsfallet började?</t>
   </si>
   <si>
+    <t>Sex</t>
+  </si>
+  <si>
     <t>Visits_yearBefore_all_r1_median</t>
   </si>
   <si>
@@ -424,7 +411,7 @@
     <t>F321</t>
   </si>
   <si>
-    <t>Svår depressiv</t>
+    <t>Svaar depressiv</t>
   </si>
   <si>
     <t>F322;F323</t>
@@ -451,13 +438,13 @@
     <t>F419</t>
   </si>
   <si>
-    <t>Blandade ångest och depression</t>
+    <t>Blandade aangest och depression</t>
   </si>
   <si>
     <t>F412</t>
   </si>
   <si>
-    <t>Generaliserat ångestsyndrom</t>
+    <t>Generaliserat aangestsyndrom</t>
   </si>
   <si>
     <t>F411</t>
@@ -478,7 +465,7 @@
     <t>F439</t>
   </si>
   <si>
-    <t>Anpassningsstörning</t>
+    <t>Anpassningsstoerning</t>
   </si>
   <si>
     <t>F432</t>
@@ -499,13 +486,13 @@
     <t>M169</t>
   </si>
   <si>
-    <t>Primär koxartros</t>
+    <t>Primaer koxartros</t>
   </si>
   <si>
     <t>M160;M161</t>
   </si>
   <si>
-    <t>Sekundär/dysplastisk</t>
+    <t>Sekundaer/dysplastisk</t>
   </si>
   <si>
     <t>M162;M163;M164;M165;M166;M167</t>
@@ -514,19 +501,19 @@
     <t>M179</t>
   </si>
   <si>
-    <t>Primär gonartros</t>
+    <t>Primaer gonartros</t>
   </si>
   <si>
     <t>M170;M171</t>
   </si>
   <si>
-    <t>Sekundär/posttraumatisk gonartros</t>
+    <t>Sekundaer/posttraumatisk gonartros</t>
   </si>
   <si>
     <t>M172;M173;M174;M175</t>
   </si>
   <si>
-    <t>Annan sekundär/specificerad</t>
+    <t>Annan sekundaer/specificerad</t>
   </si>
   <si>
     <t>M192;M198</t>
@@ -541,7 +528,7 @@
     <t>M191</t>
   </si>
   <si>
-    <t>Primär artros</t>
+    <t>Primaer artros</t>
   </si>
   <si>
     <t>M190</t>
@@ -550,7 +537,7 @@
     <t>M230;M231;M233;M234;M236;M238;M239</t>
   </si>
   <si>
-    <t>Förändring orsakad av gammal ruptur</t>
+    <t>Foeraendring orsakad av gammal ruptur</t>
   </si>
   <si>
     <t>M232</t>
@@ -613,7 +600,7 @@
     <t>M544</t>
   </si>
   <si>
-    <t>Smärtor i bröstryggen</t>
+    <t>Smaertor i broestryggen</t>
   </si>
   <si>
     <t>M546</t>
@@ -646,7 +633,7 @@
     <t>M751</t>
   </si>
   <si>
-    <t>Tendinit med förkalkning i skulderled</t>
+    <t>Tendinit med foerkalkning i skulderled</t>
   </si>
   <si>
     <t>M753</t>
@@ -661,7 +648,7 @@
     <t>M772;M778;M779</t>
   </si>
   <si>
-    <t>Kalkaneussporre (hälsporre)</t>
+    <t>Kalkaneussporre (haelsporre)</t>
   </si>
   <si>
     <t>M773</t>
@@ -694,7 +681,7 @@
     <t>M791</t>
   </si>
   <si>
-    <t>Smärtor i extremitet</t>
+    <t>Smaertor i extremitet</t>
   </si>
   <si>
     <t>M796</t>
@@ -718,7 +705,7 @@
     <t>S528;S529</t>
   </si>
   <si>
-    <t>Både ulna och radius</t>
+    <t>Baade ulna och radius</t>
   </si>
   <si>
     <t>S524;S526;S527</t>
@@ -736,19 +723,19 @@
     <t>S520;S522</t>
   </si>
   <si>
-    <t>Fraktur på nedre del ulna/radius</t>
+    <t>Fraktur paa nedre del ulna/radius</t>
   </si>
   <si>
     <t>S525;S526</t>
   </si>
   <si>
-    <t>Fraktur på skaft i ulna/radius</t>
+    <t>Fraktur paa skaft i ulna/radius</t>
   </si>
   <si>
     <t>S522;S523;S524</t>
   </si>
   <si>
-    <t>Fraktur på övre del ulna/radius</t>
+    <t>Fraktur paa oevre del ulna/radius</t>
   </si>
   <si>
     <t>S520;S521</t>
@@ -868,30 +855,9 @@
     <t>Unmarried</t>
   </si>
   <si>
-    <t>Kvinnor</t>
-  </si>
-  <si>
-    <t>Män</t>
-  </si>
-  <si>
     <t>CareAtStart</t>
   </si>
   <si>
-    <t>Mitt</t>
-  </si>
-  <si>
-    <t>Nord</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Syd</t>
-  </si>
-  <si>
-    <t>Vast</t>
-  </si>
-  <si>
     <t>Ja, upp till och med 3 månader</t>
   </si>
   <si>
@@ -946,6 +912,12 @@
     <t>unemp</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
     <t>aboveMedian</t>
   </si>
   <si>
@@ -973,12 +945,6 @@
     <t>F43</t>
   </si>
   <si>
-    <t>G56</t>
-  </si>
-  <si>
-    <t>I63</t>
-  </si>
-  <si>
     <t>M16</t>
   </si>
   <si>
@@ -1012,9 +978,6 @@
     <t>R52</t>
   </si>
   <si>
-    <t>R53</t>
-  </si>
-  <si>
     <t>S52</t>
   </si>
   <si>
@@ -1027,7 +990,7 @@
     <t>S83</t>
   </si>
   <si>
-    <t>Diagnoskod för automatisk ifyllnad</t>
+    <t>Diagnoskod för autmoatisk ifyllnad</t>
   </si>
   <si>
     <t>Beskrivning</t>
@@ -1364,14 +1327,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="4" max="4" width="73.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
@@ -1384,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1803,105 +1768,97 @@
       <c r="B40" t="s">
         <v>5</v>
       </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1912,39 +1869,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1952,10 +1909,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1966,10 +1923,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1980,10 +1937,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1994,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2008,10 +1965,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -2022,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2039,16 +1996,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
         <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2056,16 +2013,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
         <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2073,16 +2030,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2090,16 +2047,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
         <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2107,16 +2064,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
         <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2124,16 +2081,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2141,16 +2098,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2158,16 +2115,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2175,16 +2132,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
         <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2192,16 +2149,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
         <v>108</v>
-      </c>
-      <c r="C17" t="s">
-        <v>109</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2209,16 +2166,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
         <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2226,16 +2183,16 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2243,16 +2200,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
         <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2260,16 +2217,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2277,16 +2234,16 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
         <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2294,16 +2251,16 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
         <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2311,16 +2268,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2328,13 +2285,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2342,13 +2299,13 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
         <v>116</v>
-      </c>
-      <c r="F26" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2356,13 +2313,13 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
         <v>118</v>
-      </c>
-      <c r="F27" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2370,13 +2327,13 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
         <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2384,13 +2341,13 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
         <v>122</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2398,13 +2355,13 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2412,13 +2369,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2426,13 +2383,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
         <v>126</v>
-      </c>
-      <c r="F32" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2440,13 +2397,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" t="s">
         <v>128</v>
-      </c>
-      <c r="F33" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2454,13 +2411,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
         <v>130</v>
-      </c>
-      <c r="F34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2468,13 +2425,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,13 +2439,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2496,13 +2453,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2510,13 +2467,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2524,13 +2481,13 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2538,13 +2495,13 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2552,13 +2509,13 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2566,13 +2523,13 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
         <v>139</v>
-      </c>
-      <c r="F42" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2580,13 +2537,13 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" t="s">
         <v>141</v>
-      </c>
-      <c r="F43" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2594,13 +2551,13 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" t="s">
         <v>143</v>
-      </c>
-      <c r="F44" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2608,13 +2565,13 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
         <v>145</v>
-      </c>
-      <c r="F45" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2622,13 +2579,13 @@
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2636,13 +2593,13 @@
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
         <v>148</v>
-      </c>
-      <c r="F47" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2650,13 +2607,13 @@
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" t="s">
         <v>150</v>
-      </c>
-      <c r="F48" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2664,13 +2621,13 @@
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" t="s">
         <v>152</v>
-      </c>
-      <c r="F49" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2678,13 +2635,13 @@
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2692,13 +2649,13 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" t="s">
         <v>155</v>
-      </c>
-      <c r="F51" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2706,13 +2663,13 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" t="s">
         <v>157</v>
-      </c>
-      <c r="F52" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2720,13 +2677,13 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2734,13 +2691,13 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" t="s">
         <v>160</v>
-      </c>
-      <c r="F54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2748,13 +2705,13 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" t="s">
         <v>162</v>
-      </c>
-      <c r="F55" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2762,13 +2719,13 @@
         <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" t="s">
         <v>164</v>
-      </c>
-      <c r="F56" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2776,13 +2733,13 @@
         <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2790,13 +2747,13 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" t="s">
         <v>167</v>
-      </c>
-      <c r="F58" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2804,13 +2761,13 @@
         <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" t="s">
         <v>169</v>
-      </c>
-      <c r="F59" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2818,13 +2775,13 @@
         <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2832,13 +2789,13 @@
         <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" t="s">
         <v>172</v>
-      </c>
-      <c r="F61" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2846,13 +2803,13 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" t="s">
         <v>174</v>
-      </c>
-      <c r="F62" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2860,13 +2817,13 @@
         <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2874,13 +2831,13 @@
         <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" t="s">
         <v>177</v>
-      </c>
-      <c r="F64" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2888,13 +2845,13 @@
         <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" t="s">
         <v>179</v>
-      </c>
-      <c r="F65" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2902,13 +2859,13 @@
         <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2916,13 +2873,13 @@
         <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="F67" t="s">
         <v>182</v>
-      </c>
-      <c r="F67" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2930,13 +2887,13 @@
         <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2944,13 +2901,13 @@
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" t="s">
         <v>185</v>
-      </c>
-      <c r="F69" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2958,13 +2915,13 @@
         <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" t="s">
         <v>187</v>
-      </c>
-      <c r="F70" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2972,13 +2929,13 @@
         <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" t="s">
         <v>189</v>
-      </c>
-      <c r="F71" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2986,13 +2943,13 @@
         <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" t="s">
         <v>191</v>
-      </c>
-      <c r="F72" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3000,13 +2957,13 @@
         <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="F73" t="s">
         <v>193</v>
-      </c>
-      <c r="F73" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3014,13 +2971,13 @@
         <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" t="s">
         <v>195</v>
-      </c>
-      <c r="F74" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3028,13 +2985,13 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3042,13 +2999,13 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" t="s">
         <v>198</v>
-      </c>
-      <c r="F76" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3056,13 +3013,13 @@
         <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" t="s">
         <v>200</v>
-      </c>
-      <c r="F77" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3070,13 +3027,13 @@
         <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" t="s">
         <v>202</v>
-      </c>
-      <c r="F78" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3084,13 +3041,13 @@
         <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" t="s">
         <v>204</v>
-      </c>
-      <c r="F79" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3098,13 +3055,13 @@
         <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
         <v>206</v>
-      </c>
-      <c r="F80" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3112,13 +3069,13 @@
         <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3126,13 +3083,13 @@
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" t="s">
         <v>209</v>
-      </c>
-      <c r="F82" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3140,13 +3097,13 @@
         <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
         <v>211</v>
-      </c>
-      <c r="F83" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3154,13 +3111,13 @@
         <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" t="s">
         <v>213</v>
-      </c>
-      <c r="F84" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3168,13 +3125,13 @@
         <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3182,13 +3139,13 @@
         <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86" t="s">
         <v>216</v>
-      </c>
-      <c r="F86" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3196,13 +3153,13 @@
         <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" t="s">
         <v>218</v>
-      </c>
-      <c r="F87" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3210,13 +3167,13 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
+        <v>219</v>
+      </c>
+      <c r="F88" t="s">
         <v>220</v>
-      </c>
-      <c r="F88" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3224,13 +3181,13 @@
         <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" t="s">
         <v>222</v>
-      </c>
-      <c r="F89" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3238,13 +3195,13 @@
         <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3252,13 +3209,13 @@
         <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" t="s">
         <v>225</v>
-      </c>
-      <c r="F91" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3266,13 +3223,13 @@
         <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3280,13 +3237,13 @@
         <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" t="s">
         <v>228</v>
-      </c>
-      <c r="F93" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3294,13 +3251,13 @@
         <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" t="s">
         <v>230</v>
-      </c>
-      <c r="F94" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3308,13 +3265,13 @@
         <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" t="s">
         <v>232</v>
-      </c>
-      <c r="F95" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3322,13 +3279,13 @@
         <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3336,13 +3293,13 @@
         <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
+        <v>233</v>
+      </c>
+      <c r="F97" t="s">
         <v>234</v>
-      </c>
-      <c r="F97" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3350,13 +3307,13 @@
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" t="s">
         <v>236</v>
-      </c>
-      <c r="F98" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3364,13 +3321,13 @@
         <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99" t="s">
         <v>238</v>
-      </c>
-      <c r="F99" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3378,16 +3335,16 @@
         <v>51</v>
       </c>
       <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
         <v>108</v>
-      </c>
-      <c r="C100" t="s">
-        <v>109</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -3395,16 +3352,16 @@
         <v>51</v>
       </c>
       <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
         <v>111</v>
-      </c>
-      <c r="C101" t="s">
-        <v>112</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -3412,13 +3369,13 @@
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -3426,13 +3383,13 @@
         <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
+        <v>240</v>
+      </c>
+      <c r="F103" t="s">
         <v>241</v>
-      </c>
-      <c r="F103" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -3440,13 +3397,13 @@
         <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
+        <v>242</v>
+      </c>
+      <c r="F104" t="s">
         <v>243</v>
-      </c>
-      <c r="F104" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -3454,13 +3411,13 @@
         <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" t="s">
         <v>245</v>
-      </c>
-      <c r="F105" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -3468,16 +3425,16 @@
         <v>55</v>
       </c>
       <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
         <v>108</v>
-      </c>
-      <c r="C106" t="s">
-        <v>109</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -3485,16 +3442,16 @@
         <v>55</v>
       </c>
       <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
         <v>111</v>
-      </c>
-      <c r="C107" t="s">
-        <v>112</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -3502,13 +3459,13 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3516,13 +3473,13 @@
         <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
+        <v>247</v>
+      </c>
+      <c r="F109" t="s">
         <v>248</v>
-      </c>
-      <c r="F109" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -3530,13 +3487,13 @@
         <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" t="s">
+        <v>249</v>
+      </c>
+      <c r="F110" t="s">
         <v>250</v>
-      </c>
-      <c r="F110" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3544,13 +3501,13 @@
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
+        <v>251</v>
+      </c>
+      <c r="F111" t="s">
         <v>252</v>
-      </c>
-      <c r="F111" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3558,13 +3515,13 @@
         <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
+        <v>253</v>
+      </c>
+      <c r="F112" t="s">
         <v>254</v>
-      </c>
-      <c r="F112" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -3572,13 +3529,13 @@
         <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C113" t="s">
+        <v>255</v>
+      </c>
+      <c r="F113" t="s">
         <v>256</v>
-      </c>
-      <c r="F113" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3586,13 +3543,13 @@
         <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
+        <v>257</v>
+      </c>
+      <c r="F114" t="s">
         <v>258</v>
-      </c>
-      <c r="F114" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -3600,13 +3557,13 @@
         <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C115" t="s">
+        <v>259</v>
+      </c>
+      <c r="F115" t="s">
         <v>260</v>
-      </c>
-      <c r="F115" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -3614,13 +3571,13 @@
         <v>59</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" t="s">
         <v>262</v>
-      </c>
-      <c r="F116" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3628,16 +3585,16 @@
         <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -3645,16 +3602,16 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3662,16 +3619,16 @@
         <v>63</v>
       </c>
       <c r="B119" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" t="s">
         <v>266</v>
-      </c>
-      <c r="C119" t="s">
-        <v>267</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3679,16 +3636,16 @@
         <v>63</v>
       </c>
       <c r="B120" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" t="s">
         <v>268</v>
-      </c>
-      <c r="C120" t="s">
-        <v>269</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3696,16 +3653,16 @@
         <v>66</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3713,16 +3670,16 @@
         <v>66</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3730,16 +3687,16 @@
         <v>69</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -3747,16 +3704,16 @@
         <v>69</v>
       </c>
       <c r="B124" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3764,16 +3721,16 @@
         <v>72</v>
       </c>
       <c r="B125" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" t="s">
         <v>274</v>
-      </c>
-      <c r="C125" t="s">
-        <v>275</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -3781,16 +3738,16 @@
         <v>72</v>
       </c>
       <c r="B126" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126" t="s">
         <v>276</v>
-      </c>
-      <c r="C126" t="s">
-        <v>277</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -3798,10 +3755,16 @@
         <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C127" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -3809,337 +3772,276 @@
         <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C128" t="s">
-        <v>279</v>
+        <v>75</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B129" t="s">
-        <v>108</v>
+        <v>278</v>
       </c>
       <c r="C129" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B130" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="C130" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B131" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>283</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>108</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c r="C133" t="s">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>102</v>
+        <v>287</v>
       </c>
       <c r="C134" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>290</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C138" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B139" t="s">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="C139" t="s">
-        <v>109</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B140" t="s">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="C140" t="s">
-        <v>294</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140" t="s">
-        <v>113</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>107</v>
       </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>110</v>
       </c>
       <c r="C143" t="s">
+        <v>298</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
         <v>112</v>
-      </c>
-      <c r="D143">
-        <v>4</v>
-      </c>
-      <c r="E143" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B144" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="C144" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D144">
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>88</v>
-      </c>
-      <c r="B145" t="s">
-        <v>302</v>
-      </c>
-      <c r="C145" t="s">
-        <v>303</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>91</v>
-      </c>
-      <c r="B146" t="s">
-        <v>111</v>
-      </c>
-      <c r="C146" t="s">
-        <v>304</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>91</v>
-      </c>
-      <c r="B147" t="s">
-        <v>108</v>
-      </c>
-      <c r="C147" t="s">
-        <v>305</v>
-      </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B148" t="s">
-        <v>111</v>
-      </c>
-      <c r="C148" t="s">
-        <v>304</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>94</v>
-      </c>
-      <c r="B149" t="s">
-        <v>108</v>
-      </c>
-      <c r="C149" t="s">
-        <v>305</v>
-      </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4150,36 +4052,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:XFD212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4187,10 +4088,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4198,10 +4099,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4209,7 +4110,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -4220,7 +4121,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -4231,10 +4132,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -4242,23 +4143,23 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -4266,7 +4167,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -4274,10 +4175,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4285,10 +4186,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4296,10 +4197,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -4307,7 +4208,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -4318,7 +4219,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -4329,7 +4230,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -4340,23 +4241,23 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -4364,7 +4265,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -4372,10 +4273,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4383,10 +4284,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4394,10 +4295,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4405,7 +4306,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -4416,7 +4317,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -4427,10 +4328,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -4438,23 +4339,23 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -4462,7 +4363,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -4470,10 +4371,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4481,10 +4382,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -4492,10 +4393,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4503,10 +4404,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4514,7 +4415,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -4525,7 +4426,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -4536,23 +4437,23 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -4560,7 +4461,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -4568,10 +4469,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4579,10 +4480,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -4590,10 +4491,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -4601,7 +4502,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
@@ -4612,7 +4513,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -4623,7 +4524,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s">
         <v>63</v>
@@ -4634,23 +4535,23 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -4658,7 +4559,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -4666,10 +4567,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4677,10 +4578,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -4688,10 +4589,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -4699,10 +4600,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -4710,10 +4611,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -4721,10 +4622,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -4732,23 +4633,23 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -4756,18 +4657,18 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4775,10 +4676,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4786,10 +4687,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -4797,10 +4698,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -4808,10 +4709,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -4819,10 +4720,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -4830,23 +4731,23 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -4854,18 +4755,18 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4873,10 +4774,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4884,10 +4785,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -4895,10 +4796,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -4906,10 +4807,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -4917,10 +4818,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -4928,23 +4829,23 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -4952,18 +4853,18 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4971,10 +4872,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -4982,10 +4883,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -4993,10 +4894,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -5004,10 +4905,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -5015,10 +4916,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -5026,23 +4927,23 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -5050,18 +4951,18 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5069,10 +4970,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -5080,10 +4981,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -5091,10 +4992,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -5102,10 +5003,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -5113,10 +5014,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -5124,23 +5025,23 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
@@ -5148,18 +5049,18 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5167,10 +5068,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -5178,10 +5079,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -5189,10 +5090,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -5200,10 +5101,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -5211,10 +5112,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -5222,23 +5123,23 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B109" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -5246,18 +5147,18 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5265,10 +5166,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -5276,10 +5177,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -5287,10 +5188,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -5298,10 +5199,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -5309,10 +5210,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B117" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C117">
         <v>6</v>
@@ -5320,23 +5221,23 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -5344,18 +5245,18 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5363,10 +5264,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -5374,10 +5275,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B124" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -5385,10 +5286,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -5396,10 +5297,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B126" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -5407,10 +5308,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B127" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -5418,23 +5319,23 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -5442,18 +5343,18 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -5461,10 +5362,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -5472,10 +5373,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -5483,10 +5384,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -5494,10 +5395,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -5505,10 +5406,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C137">
         <v>6</v>
@@ -5516,23 +5417,23 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -5540,18 +5441,18 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -5559,10 +5460,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B143" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -5570,10 +5471,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -5581,10 +5482,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B145" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -5592,10 +5493,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B146" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -5603,10 +5504,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C147">
         <v>6</v>
@@ -5614,23 +5515,23 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
@@ -5638,18 +5539,18 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B152" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -5657,10 +5558,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -5668,10 +5569,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B154" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -5679,10 +5580,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B155" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -5690,10 +5591,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B156" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -5701,10 +5602,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C157">
         <v>6</v>
@@ -5712,23 +5613,23 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B158" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B159" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -5736,18 +5637,18 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -5755,10 +5656,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -5766,10 +5667,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B164" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -5777,10 +5678,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -5788,10 +5689,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B166" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -5799,10 +5700,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B167" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C167">
         <v>6</v>
@@ -5810,23 +5711,23 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B169" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
@@ -5834,605 +5735,311 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B172" t="s">
-        <v>80</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B173" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B174" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B175" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B177" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C177">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B178" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B179" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B182" t="s">
-        <v>85</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B183" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B184" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B185" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B186" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C187">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B188" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B189" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B191" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B192" t="s">
-        <v>69</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B193" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B194" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B195" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B196" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C196">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C197">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B198" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B199" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B201" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B202" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>328</v>
-      </c>
-      <c r="B203" t="s">
-        <v>80</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>328</v>
-      </c>
-      <c r="B204" t="s">
-        <v>51</v>
-      </c>
-      <c r="C204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>328</v>
-      </c>
-      <c r="B205" t="s">
-        <v>85</v>
-      </c>
-      <c r="C205">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>328</v>
-      </c>
-      <c r="B206" t="s">
-        <v>94</v>
-      </c>
-      <c r="C206">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>328</v>
-      </c>
-      <c r="B207" t="s">
-        <v>60</v>
-      </c>
-      <c r="C207">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>328</v>
-      </c>
-      <c r="B208" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>328</v>
-      </c>
-      <c r="B209" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>328</v>
-      </c>
-      <c r="B210" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>328</v>
-      </c>
-      <c r="B211" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>328</v>
-      </c>
-      <c r="B212" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>329</v>
-      </c>
-      <c r="B213" t="s">
-        <v>69</v>
-      </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>329</v>
-      </c>
-      <c r="B214" t="s">
-        <v>60</v>
-      </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>329</v>
-      </c>
-      <c r="B215" t="s">
-        <v>55</v>
-      </c>
-      <c r="C215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>329</v>
-      </c>
-      <c r="B216" t="s">
-        <v>80</v>
-      </c>
-      <c r="C216">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>329</v>
-      </c>
-      <c r="B217" t="s">
-        <v>85</v>
-      </c>
-      <c r="C217">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>329</v>
-      </c>
-      <c r="B218" t="s">
-        <v>94</v>
-      </c>
-      <c r="C218">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>329</v>
-      </c>
-      <c r="B219" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>329</v>
-      </c>
-      <c r="B220" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>329</v>
-      </c>
-      <c r="B221" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>329</v>
-      </c>
-      <c r="B222" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>330</v>
-      </c>
-      <c r="B223" t="s">
-        <v>80</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>330</v>
-      </c>
-      <c r="B224" t="s">
-        <v>69</v>
-      </c>
-      <c r="C224">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>330</v>
-      </c>
-      <c r="B225" t="s">
-        <v>60</v>
-      </c>
-      <c r="C225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>330</v>
-      </c>
-      <c r="B226" t="s">
-        <v>85</v>
-      </c>
-      <c r="C226">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>330</v>
-      </c>
-      <c r="B227" t="s">
-        <v>21</v>
-      </c>
-      <c r="C227">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>330</v>
-      </c>
-      <c r="B228" t="s">
-        <v>72</v>
-      </c>
-      <c r="C228">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>330</v>
-      </c>
-      <c r="B229" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>330</v>
-      </c>
-      <c r="B230" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>330</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>330</v>
-      </c>
-      <c r="B232" t="s">
         <v>59</v>
       </c>
     </row>
